--- a/用例数据/深A/非交易转让/测试结果.xlsx
+++ b/用例数据/深A/非交易转让/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4867" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4867" uniqueCount="437">
   <si>
     <t>EXCHID</t>
   </si>
@@ -1180,9 +1180,6 @@
     <t>1002257471.560</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -1328,6 +1325,14 @@
   </si>
   <si>
     <t>000006909098</t>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1683,9 +1688,9 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1945,7 +1950,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -2205,7 +2210,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -2465,7 +2470,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -2725,7 +2730,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
@@ -2985,7 +2990,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>86</v>
       </c>
@@ -3245,7 +3250,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>86</v>
       </c>
@@ -3505,21 +3510,21 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3535,82 +3540,82 @@
       <selection activeCell="A11" sqref="A11:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="41" max="42" width="15" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="15" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="15" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="26" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>250</v>
       </c>
@@ -3849,7 +3854,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>377</v>
       </c>
@@ -4088,7 +4093,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>377</v>
       </c>
@@ -4327,7 +4332,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>377</v>
       </c>
@@ -4566,7 +4571,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>377</v>
       </c>
@@ -4805,7 +4810,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>377</v>
       </c>
@@ -5044,7 +5049,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>377</v>
       </c>
@@ -5283,7 +5288,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>377</v>
       </c>
@@ -5522,7 +5527,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>377</v>
       </c>
@@ -5761,7 +5766,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:CA1"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5777,9 +5782,9 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
@@ -5985,7 +5990,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>189</v>
       </c>
@@ -6128,7 +6133,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>189</v>
       </c>
@@ -6271,7 +6276,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>189</v>
       </c>
@@ -6414,7 +6419,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>189</v>
       </c>
@@ -6557,7 +6562,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>189</v>
       </c>
@@ -6700,7 +6705,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>189</v>
       </c>
@@ -6843,7 +6848,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>189</v>
       </c>
@@ -6986,7 +6991,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>189</v>
       </c>
@@ -7129,7 +7134,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>189</v>
       </c>
@@ -7272,7 +7277,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>189</v>
       </c>
@@ -7415,7 +7420,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>189</v>
       </c>
@@ -7558,7 +7563,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>189</v>
       </c>
@@ -7701,7 +7706,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>189</v>
       </c>
@@ -7844,7 +7849,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>189</v>
       </c>
@@ -7987,7 +7992,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>189</v>
       </c>
@@ -8130,7 +8135,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>189</v>
       </c>
@@ -8273,7 +8278,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>189</v>
       </c>
@@ -8416,7 +8421,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>189</v>
       </c>
@@ -8559,7 +8564,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>189</v>
       </c>
@@ -8702,7 +8707,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>189</v>
       </c>
@@ -8845,7 +8850,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>189</v>
       </c>
@@ -8988,7 +8993,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>189</v>
       </c>
@@ -9131,7 +9136,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>189</v>
       </c>
@@ -9274,7 +9279,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>189</v>
       </c>
@@ -9417,7 +9422,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>189</v>
       </c>
@@ -9560,7 +9565,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>189</v>
       </c>
@@ -9703,7 +9708,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>189</v>
       </c>
@@ -9846,7 +9851,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>189</v>
       </c>
@@ -9989,7 +9994,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>189</v>
       </c>
@@ -10132,7 +10137,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>189</v>
       </c>
@@ -10275,14 +10280,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10293,143 +10298,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AZ23" sqref="AZ23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="15" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="15" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="101" max="102" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="101" max="102" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="107" max="108" width="15" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="15" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="122" max="123" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="15" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="134" max="134" width="15" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>141</v>
       </c>
@@ -10845,7 +10850,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>381</v>
       </c>
@@ -10971,7 +10976,7 @@
         <v>359</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>106</v>
@@ -10996,7 +11001,7 @@
         <v>96</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>93</v>
@@ -11062,7 +11067,7 @@
         <v>86</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>96</v>
@@ -11082,7 +11087,7 @@
         <v>93</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="CI2" s="1"/>
       <c r="CJ2" s="1" t="s">
@@ -11205,9 +11210,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>364</v>
@@ -11331,7 +11336,7 @@
         <v>359</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>106</v>
@@ -11356,7 +11361,7 @@
         <v>96</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>93</v>
@@ -11422,7 +11427,7 @@
         <v>86</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>96</v>
@@ -11442,7 +11447,7 @@
         <v>93</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="CI3" s="1"/>
       <c r="CJ3" s="1" t="s">
@@ -11565,9 +11570,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>358</v>
@@ -11643,7 +11648,7 @@
         <v>96</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>123</v>
@@ -11691,7 +11696,7 @@
         <v>359</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="AR4" s="1" t="s">
         <v>114</v>
@@ -11716,7 +11721,7 @@
         <v>96</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>93</v>
@@ -11782,7 +11787,7 @@
         <v>86</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>96</v>
@@ -11802,7 +11807,7 @@
         <v>93</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="CI4" s="1"/>
       <c r="CJ4" s="1" t="s">
@@ -11925,9 +11930,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>358</v>
@@ -12003,7 +12008,7 @@
         <v>96</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>118</v>
@@ -12051,7 +12056,7 @@
         <v>359</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="AR5" s="1" t="s">
         <v>114</v>
@@ -12076,7 +12081,7 @@
         <v>96</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>93</v>
@@ -12142,7 +12147,7 @@
         <v>86</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>96</v>
@@ -12162,7 +12167,7 @@
         <v>93</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="CI5" s="1"/>
       <c r="CJ5" s="1" t="s">
@@ -12285,9 +12290,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>364</v>
@@ -12296,10 +12301,10 @@
         <v>97</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>86</v>
@@ -12363,7 +12368,7 @@
         <v>96</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>372</v>
@@ -12411,7 +12416,7 @@
         <v>359</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="AR6" s="1" t="s">
         <v>87</v>
@@ -12436,7 +12441,7 @@
         <v>96</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="BA6" s="1" t="s">
         <v>93</v>
@@ -12502,7 +12507,7 @@
         <v>86</v>
       </c>
       <c r="BZ6" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="CA6" s="1" t="s">
         <v>96</v>
@@ -12522,7 +12527,7 @@
         <v>93</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="CI6" s="1"/>
       <c r="CJ6" s="1" t="s">
@@ -12645,9 +12650,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>364</v>
@@ -12656,10 +12661,10 @@
         <v>97</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>86</v>
@@ -12723,7 +12728,7 @@
         <v>96</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>93</v>
@@ -12771,7 +12776,7 @@
         <v>359</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="AR7" s="1" t="s">
         <v>87</v>
@@ -12796,7 +12801,7 @@
         <v>96</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="BA7" s="1" t="s">
         <v>93</v>
@@ -12862,7 +12867,7 @@
         <v>86</v>
       </c>
       <c r="BZ7" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="CA7" s="1" t="s">
         <v>96</v>
@@ -12882,7 +12887,7 @@
         <v>93</v>
       </c>
       <c r="CH7" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="CI7" s="1"/>
       <c r="CJ7" s="1" t="s">
@@ -13005,9 +13010,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>364</v>
@@ -13016,10 +13021,10 @@
         <v>97</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>86</v>
@@ -13083,7 +13088,7 @@
         <v>96</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>94</v>
@@ -13131,7 +13136,7 @@
         <v>359</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="AR8" s="1" t="s">
         <v>87</v>
@@ -13156,7 +13161,7 @@
         <v>96</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="BA8" s="1" t="s">
         <v>93</v>
@@ -13222,7 +13227,7 @@
         <v>86</v>
       </c>
       <c r="BZ8" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="CA8" s="1" t="s">
         <v>96</v>
@@ -13242,7 +13247,7 @@
         <v>93</v>
       </c>
       <c r="CH8" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="CI8" s="1"/>
       <c r="CJ8" s="1" t="s">
@@ -13365,9 +13370,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>358</v>
@@ -13376,10 +13381,10 @@
         <v>97</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>86</v>
@@ -13443,7 +13448,7 @@
         <v>96</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AB9" s="1" t="s">
         <v>123</v>
@@ -13491,7 +13496,7 @@
         <v>359</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="AR9" s="1" t="s">
         <v>120</v>
@@ -13516,7 +13521,7 @@
         <v>96</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>93</v>
@@ -13582,7 +13587,7 @@
         <v>86</v>
       </c>
       <c r="BZ9" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="CA9" s="1" t="s">
         <v>96</v>
@@ -13602,7 +13607,7 @@
         <v>93</v>
       </c>
       <c r="CH9" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="CI9" s="1"/>
       <c r="CJ9" s="1" t="s">
@@ -13725,9 +13730,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>358</v>
@@ -13736,10 +13741,10 @@
         <v>97</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>86</v>
@@ -13803,7 +13808,7 @@
         <v>96</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AB10" s="1" t="s">
         <v>118</v>
@@ -13851,7 +13856,7 @@
         <v>359</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="AR10" s="1" t="s">
         <v>120</v>
@@ -13876,7 +13881,7 @@
         <v>96</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="BA10" s="1" t="s">
         <v>93</v>
@@ -13942,7 +13947,7 @@
         <v>86</v>
       </c>
       <c r="BZ10" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="CA10" s="1" t="s">
         <v>96</v>
@@ -13962,7 +13967,7 @@
         <v>93</v>
       </c>
       <c r="CH10" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="CI10" s="1"/>
       <c r="CJ10" s="1" t="s">
@@ -14085,9 +14090,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>358</v>
@@ -14096,10 +14101,10 @@
         <v>97</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>86</v>
@@ -14163,7 +14168,7 @@
         <v>96</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AB11" s="1" t="s">
         <v>123</v>
@@ -14211,7 +14216,7 @@
         <v>359</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="AR11" s="1" t="s">
         <v>120</v>
@@ -14236,7 +14241,7 @@
         <v>96</v>
       </c>
       <c r="AZ11" s="1" t="s">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="BA11" s="1" t="s">
         <v>93</v>
@@ -14302,7 +14307,7 @@
         <v>86</v>
       </c>
       <c r="BZ11" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="CA11" s="1" t="s">
         <v>96</v>
@@ -14322,7 +14327,7 @@
         <v>93</v>
       </c>
       <c r="CH11" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="CI11" s="1"/>
       <c r="CJ11" s="1" t="s">
@@ -14445,9 +14450,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>366</v>
@@ -14456,10 +14461,10 @@
         <v>97</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>86</v>
@@ -14521,7 +14526,7 @@
         <v>96</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>93</v>
@@ -14569,7 +14574,7 @@
         <v>359</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="AR12" s="1" t="s">
         <v>87</v>
@@ -14594,7 +14599,7 @@
         <v>96</v>
       </c>
       <c r="AZ12" s="1" t="s">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="BA12" s="1" t="s">
         <v>93</v>
@@ -14660,7 +14665,7 @@
         <v>86</v>
       </c>
       <c r="BZ12" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="CA12" s="1" t="s">
         <v>96</v>
@@ -14680,14 +14685,14 @@
         <v>93</v>
       </c>
       <c r="CH12" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="CI12" s="1"/>
       <c r="CJ12" s="1" t="s">
         <v>198</v>
       </c>
       <c r="CK12" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CL12" s="1" t="s">
         <v>102</v>
@@ -14799,9 +14804,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>366</v>
@@ -14810,10 +14815,10 @@
         <v>97</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>86</v>
@@ -14875,7 +14880,7 @@
         <v>96</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AB13" s="1" t="s">
         <v>93</v>
@@ -14923,7 +14928,7 @@
         <v>359</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="AR13" s="1" t="s">
         <v>106</v>
@@ -14948,7 +14953,7 @@
         <v>96</v>
       </c>
       <c r="AZ13" s="1" t="s">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="BA13" s="1" t="s">
         <v>93</v>
@@ -15014,7 +15019,7 @@
         <v>86</v>
       </c>
       <c r="BZ13" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="CA13" s="1" t="s">
         <v>96</v>
@@ -15034,14 +15039,14 @@
         <v>93</v>
       </c>
       <c r="CH13" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="CI13" s="1"/>
       <c r="CJ13" s="1" t="s">
         <v>198</v>
       </c>
       <c r="CK13" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CL13" s="1" t="s">
         <v>102</v>
@@ -15153,9 +15158,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>366</v>
@@ -15164,10 +15169,10 @@
         <v>97</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>86</v>
@@ -15229,7 +15234,7 @@
         <v>96</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AB14" s="1" t="s">
         <v>93</v>
@@ -15277,7 +15282,7 @@
         <v>359</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="AR14" s="1" t="s">
         <v>87</v>
@@ -15302,7 +15307,7 @@
         <v>96</v>
       </c>
       <c r="AZ14" s="1" t="s">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="BA14" s="1" t="s">
         <v>93</v>
@@ -15368,7 +15373,7 @@
         <v>86</v>
       </c>
       <c r="BZ14" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="CA14" s="1" t="s">
         <v>96</v>
@@ -15388,14 +15393,14 @@
         <v>93</v>
       </c>
       <c r="CH14" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="CI14" s="1"/>
       <c r="CJ14" s="1" t="s">
         <v>198</v>
       </c>
       <c r="CK14" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CL14" s="1" t="s">
         <v>102</v>
@@ -15507,9 +15512,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>366</v>
@@ -15518,10 +15523,10 @@
         <v>97</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>86</v>
@@ -15583,7 +15588,7 @@
         <v>96</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AB15" s="1" t="s">
         <v>93</v>
@@ -15631,7 +15636,7 @@
         <v>359</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="AR15" s="1" t="s">
         <v>106</v>
@@ -15656,7 +15661,7 @@
         <v>96</v>
       </c>
       <c r="AZ15" s="1" t="s">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="BA15" s="1" t="s">
         <v>93</v>
@@ -15722,7 +15727,7 @@
         <v>86</v>
       </c>
       <c r="BZ15" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="CA15" s="1" t="s">
         <v>96</v>
@@ -15742,14 +15747,14 @@
         <v>93</v>
       </c>
       <c r="CH15" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="CI15" s="1"/>
       <c r="CJ15" s="1" t="s">
         <v>198</v>
       </c>
       <c r="CK15" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CL15" s="1" t="s">
         <v>102</v>
@@ -15861,9 +15866,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>366</v>
@@ -15872,10 +15877,10 @@
         <v>97</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>86</v>
@@ -15937,7 +15942,7 @@
         <v>96</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AB16" s="1" t="s">
         <v>93</v>
@@ -15985,7 +15990,7 @@
         <v>359</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="AR16" s="1" t="s">
         <v>120</v>
@@ -16010,7 +16015,7 @@
         <v>96</v>
       </c>
       <c r="AZ16" s="1" t="s">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="BA16" s="1" t="s">
         <v>93</v>
@@ -16076,7 +16081,7 @@
         <v>86</v>
       </c>
       <c r="BZ16" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="CA16" s="1" t="s">
         <v>96</v>
@@ -16096,14 +16101,14 @@
         <v>93</v>
       </c>
       <c r="CH16" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="CI16" s="1"/>
       <c r="CJ16" s="1" t="s">
         <v>198</v>
       </c>
       <c r="CK16" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CL16" s="1" t="s">
         <v>102</v>
@@ -16215,9 +16220,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>366</v>
@@ -16226,10 +16231,10 @@
         <v>97</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>86</v>
@@ -16291,7 +16296,7 @@
         <v>96</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AB17" s="1" t="s">
         <v>93</v>
@@ -16339,7 +16344,7 @@
         <v>359</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="AR17" s="1" t="s">
         <v>114</v>
@@ -16364,7 +16369,7 @@
         <v>96</v>
       </c>
       <c r="AZ17" s="1" t="s">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="BA17" s="1" t="s">
         <v>93</v>
@@ -16430,7 +16435,7 @@
         <v>86</v>
       </c>
       <c r="BZ17" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="CA17" s="1" t="s">
         <v>96</v>
@@ -16450,14 +16455,14 @@
         <v>93</v>
       </c>
       <c r="CH17" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="CI17" s="1"/>
       <c r="CJ17" s="1" t="s">
         <v>198</v>
       </c>
       <c r="CK17" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CL17" s="1" t="s">
         <v>102</v>
@@ -16569,9 +16574,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>366</v>
@@ -16580,10 +16585,10 @@
         <v>97</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>86</v>
@@ -16645,7 +16650,7 @@
         <v>96</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AB18" s="1" t="s">
         <v>93</v>
@@ -16693,7 +16698,7 @@
         <v>359</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="AR18" s="1" t="s">
         <v>120</v>
@@ -16718,7 +16723,7 @@
         <v>96</v>
       </c>
       <c r="AZ18" s="1" t="s">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="BA18" s="1" t="s">
         <v>93</v>
@@ -16784,7 +16789,7 @@
         <v>86</v>
       </c>
       <c r="BZ18" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="CA18" s="1" t="s">
         <v>96</v>
@@ -16804,14 +16809,14 @@
         <v>93</v>
       </c>
       <c r="CH18" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="CI18" s="1"/>
       <c r="CJ18" s="1" t="s">
         <v>198</v>
       </c>
       <c r="CK18" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CL18" s="1" t="s">
         <v>102</v>
@@ -16923,9 +16928,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>366</v>
@@ -16934,10 +16939,10 @@
         <v>97</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>86</v>
@@ -16999,7 +17004,7 @@
         <v>96</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>93</v>
@@ -17047,7 +17052,7 @@
         <v>359</v>
       </c>
       <c r="AQ19" s="1" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="AR19" s="1" t="s">
         <v>114</v>
@@ -17072,7 +17077,7 @@
         <v>96</v>
       </c>
       <c r="AZ19" s="1" t="s">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="BA19" s="1" t="s">
         <v>93</v>
@@ -17138,7 +17143,7 @@
         <v>86</v>
       </c>
       <c r="BZ19" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="CA19" s="1" t="s">
         <v>96</v>
@@ -17158,14 +17163,14 @@
         <v>93</v>
       </c>
       <c r="CH19" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="CI19" s="1"/>
       <c r="CJ19" s="1" t="s">
         <v>198</v>
       </c>
       <c r="CK19" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CL19" s="1" t="s">
         <v>102</v>
@@ -17280,5 +17285,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/用例数据/深A/非交易转让/测试结果.xlsx
+++ b/用例数据/深A/非交易转让/测试结果.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4867" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4875" uniqueCount="438">
   <si>
     <t>EXCHID</t>
   </si>
@@ -1332,6 +1332,10 @@
   </si>
   <si>
     <t>99999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10298,8 +10302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AZ23" sqref="AZ23"/>
+    <sheetView tabSelected="1" topLeftCell="DV1" workbookViewId="0">
+      <selection activeCell="EG8" sqref="EG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -14796,7 +14800,9 @@
       <c r="EE12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="EF12" s="1"/>
+      <c r="EF12" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="EG12" s="1" t="s">
         <v>93</v>
       </c>
@@ -15150,7 +15156,9 @@
       <c r="EE13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="EF13" s="1"/>
+      <c r="EF13" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="EG13" s="1" t="s">
         <v>93</v>
       </c>
@@ -15504,7 +15512,9 @@
       <c r="EE14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="EF14" s="1"/>
+      <c r="EF14" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="EG14" s="1" t="s">
         <v>93</v>
       </c>
@@ -15858,7 +15868,9 @@
       <c r="EE15" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="EF15" s="1"/>
+      <c r="EF15" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="EG15" s="1" t="s">
         <v>93</v>
       </c>
@@ -16212,7 +16224,9 @@
       <c r="EE16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="EF16" s="1"/>
+      <c r="EF16" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="EG16" s="1" t="s">
         <v>93</v>
       </c>
@@ -16566,7 +16580,9 @@
       <c r="EE17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="EF17" s="1"/>
+      <c r="EF17" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="EG17" s="1" t="s">
         <v>93</v>
       </c>
@@ -16920,7 +16936,9 @@
       <c r="EE18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="EF18" s="1"/>
+      <c r="EF18" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="EG18" s="1" t="s">
         <v>93</v>
       </c>
@@ -17274,7 +17292,9 @@
       <c r="EE19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="EF19" s="1"/>
+      <c r="EF19" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="EG19" s="1" t="s">
         <v>93</v>
       </c>
